--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\An 3\Sem 2\Vvss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A467FB2-4AE9-4E2A-84E3-F5FFF1E95E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323331D-BD66-4FF1-A8C7-5B152666BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7140" windowWidth="29040" windowHeight="15840" xr2:uid="{A6B4D32F-2DB3-4604-861A-8971A06046CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6B4D32F-2DB3-4604-861A-8971A06046CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Titlu: MyDoctor (Mobile Project, ianuarie 2023)</t>
+    <t>Name: Morar Ana Teodora 732/1</t>
   </si>
   <si>
-    <t>Nume: Morar Ana Teodora 732/1</t>
+    <t>Bemerkungen</t>
   </si>
   <si>
-    <t>datele personale sa aiba mai multe field-uri (varsta)</t>
+    <t>komplette Anforderungen</t>
   </si>
   <si>
-    <t>Observatii</t>
+    <t>mehr Felder für die persönlichen Benutzerdaten</t>
   </si>
   <si>
-    <t>completarea requirements-urilor</t>
+    <t>Titel: MyDoctor (Mobile Project, ianuarie 2023)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,25 +416,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
